--- a/LLM tool result.xlsx
+++ b/LLM tool result.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamann\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desktop_move\llm_tool_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7093E3-1477-46E2-9859-E44F5CA7163F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB64534-132C-4EC9-96DC-E4E34FC0D588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29820" yWindow="75" windowWidth="27285" windowHeight="15435" activeTab="1" xr2:uid="{7B97625C-2E25-43CE-9017-4F9871D5A749}"/>
+    <workbookView xWindow="29715" yWindow="135" windowWidth="27285" windowHeight="15435" xr2:uid="{7B97625C-2E25-43CE-9017-4F9871D5A749}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="79">
   <si>
     <t>厂商</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,29 +53,6 @@
   </si>
   <si>
     <t>Anthropic</t>
-  </si>
-  <si>
-    <t>claude-3.5-sonnet</t>
-  </si>
-  <si>
-    <t>--</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gemini-1.5-pro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Google (OpenAI协议)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100%在生成tool调用后没有stop，继续生成后续</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿里巴巴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>qwen2.5-72b-instruct</t>
@@ -165,10 +141,6 @@
   </si>
   <si>
     <t>Moonshot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字节跳动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -226,10 +198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中转商不支持</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>腾讯 (OpenAI协议)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -243,6 +211,149 @@
   </si>
   <si>
     <t>41% 没有触发tool调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>claude-3.5-haiku</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>claude-3.5-sonnet-20241022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>claude-3-haiku</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google (genai SDK)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gemini-1.5-flash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gemini-1.5-pro-002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61%报错 MALFORMED_FUNCTION_CALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>97% (*)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在生成tool调用后没有stop，需要额外剔除后续part
+1% 没有触发tool调用
+2% 没有完成前置步骤就开始tool调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4% tool参数错误
+96% 没有完成前置步骤就开始tool调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abab7-chat-preview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minimax (OpenAI协议)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商汤 (OpenAI协议)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SenseChat-5</t>
+  </si>
+  <si>
+    <t>阿里巴巴 (OpenAI协议)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节跳动 (OpenAI协议)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4% 被风控拦截（从总数剔除）
+50% 误返回了interpreter调用
+14% 没有触发tool调用
+2% tool参数错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>88% 没有触发tool调用
+1% tool参数错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>llama-3.1-405b-instruct</t>
+  </si>
+  <si>
+    <t>Meta + Lepton推理
+(通过OpenRouter)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meta + Avian推理
+(通过OpenRouter)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meta + Fireworks推理
+(通过OpenRouter)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meta + SiliconFlow推理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meta + Together推理
+(通过OpenRouter)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abab6.5s-chat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18% tool参数错误
+1% 没有触发tool调用
+66% 没有完成前置步骤就开始tool调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2% tool参数错误
+1% 没有触发tool调用
+94% 没有完成前置步骤就开始tool调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>llama-3.1-70b-instruct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里 + SiliconFlow推理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qwen2.5-72B-Instruct</t>
+  </si>
+  <si>
+    <t>79% tool参数错误
+11% 没有触发tool调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41% tool参数错误
+6% 没有触发tool调用
+49% 没有完成前置步骤就开始tool调用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -267,7 +378,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,52 +387,22 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor theme="6" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -331,7 +412,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -341,22 +422,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -365,14 +437,14 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -388,12 +460,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0976C3C7-A265-45F8-9E48-A7D3B870EFB0}" name="表1" displayName="表1" ref="A1:D20" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0976C3C7-A265-45F8-9E48-A7D3B870EFB0}" name="表1" displayName="表1" ref="A1:D35" totalsRowShown="0" headerRowDxfId="2">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{3F514F88-D786-4895-9F01-E9C2F47D266E}" name="厂商"/>
     <tableColumn id="2" xr3:uid="{DC531C40-A367-4B4D-84BA-B6C95311EDF4}" name="模型名"/>
-    <tableColumn id="3" xr3:uid="{72567B8C-75E9-4FFF-AB92-A26F19E04971}" name="第一轮tool调用 符合期望率" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{8CE655B7-02FC-471A-B5B9-23AF71692D6F}" name="主要错误类型" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{72567B8C-75E9-4FFF-AB92-A26F19E04971}" name="第一轮tool调用 符合期望率" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{8CE655B7-02FC-471A-B5B9-23AF71692D6F}" name="主要错误类型" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -695,23 +767,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D60A92E-3BD0-48FA-A119-746112EF9262}">
-  <dimension ref="A1:D20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34438006-3C47-470B-BCD2-CC318FE97F2A}">
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:D14"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection sqref="A1:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="34.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.625" customWidth="1"/>
+    <col min="1" max="1" width="19.875" customWidth="1"/>
+    <col min="2" max="2" width="25.375" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -730,575 +801,495 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>30</v>
+      <c r="A4" t="s">
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0.92</v>
+        <v>49</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.92</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0.99</v>
+        <v>52</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C8" s="5">
-        <v>0.97</v>
+        <v>0.39</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="5">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.99</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.97</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0.05</v>
+        <v>12</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0.57999999999999996</v>
+        <v>15</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.05</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="22" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.34</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="5">
-        <v>0.94</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="26" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="5">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="5">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="5">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>49</v>
-      </c>
+    <row r="27" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="4">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C36" s="3"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C37" s="3"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C38" s="3"/>
+      <c r="D38" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34438006-3C47-470B-BCD2-CC318FE97F2A}">
-  <dimension ref="A1:D20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="34.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0.92</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="8">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="8">
-        <v>0.99</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="8">
-        <v>0.97</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="8">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="8">
-        <v>0.94</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="5">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="5">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="5">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>